--- a/mm.5pho.xlsx
+++ b/mm.5pho.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ananya\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ananya\Documents\GitHub\GurvichFig1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA6DFAAD-DB3D-4A42-9737-E6832C6E2222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED18C0FF-162A-4B1F-997F-EBBA9F1740AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="390" windowWidth="21600" windowHeight="11835" xr2:uid="{EB919BC2-D668-4F42-B55F-25873335B5DF}"/>
+    <workbookView xWindow="4005" yWindow="3075" windowWidth="21600" windowHeight="11835" xr2:uid="{EB919BC2-D668-4F42-B55F-25873335B5DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
-    <t>NaN</t>
-  </si>
-  <si>
     <t>_1</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>_24.67</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -414,36 +414,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D4458-D8B4-4778-80A8-B03AD19BA3C0}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>3.0248243256885102E-3</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>0.28171206374779101</v>
@@ -954,7 +954,7 @@
         <v>0.94530946064566201</v>
       </c>
       <c r="E21" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F21">
         <v>-0.28830711931699199</v>
@@ -971,7 +971,7 @@
         <v>0.48845165149593101</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>0.504104485084239</v>
